--- a/Courses.xlsx
+++ b/Courses.xlsx
@@ -35,7 +35,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>[lv.venta.models.users.Student@24fa751b]</t>
+    <t>[lv.venta.models.users.Student@4b7a7ce6]</t>
   </si>
   <si>
     <t>2</t>
